--- a/DOCN/DOCN.xlsx
+++ b/DOCN/DOCN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/DOCN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1701" documentId="8_{F83C9961-7AEB-4A4A-9982-D2587455181D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6152800-3BDE-4632-8429-EA50C38588B7}"/>
+  <xr:revisionPtr revIDLastSave="1890" documentId="8_{F83C9961-7AEB-4A4A-9982-D2587455181D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2EA0CD3-E4D3-4292-B661-5B2B8CDB924F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="34370" yWindow="3220" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{A9886D79-AE61-413E-B73F-983C9B8F032A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="2" xr2:uid="{A9886D79-AE61-413E-B73F-983C9B8F032A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -1049,11 +1049,11 @@
     <v>4</v>
     <v>51.69</v>
     <v>19.39</v>
-    <v>2.387</v>
-    <v>-0.57999999999999996</v>
-    <v>-7.1960000000000001E-3</v>
-    <v>-1.4188000000000001E-2</v>
-    <v>-0.28999999999999998</v>
+    <v>2.3849999999999998</v>
+    <v>3.11</v>
+    <v>-3.1314000000000002E-2</v>
+    <v>8.6750000000000008E-2</v>
+    <v>-1.22</v>
     <v>USD</v>
     <v>DigitalOcean Holdings, Inc. provides cloud computing platform offering on-demand infrastructure, platform and software tools for startups and small and medium-sized businesses (SMBs). The Company provides SMBs with a comprehensive suite of cloud offerings, advanced networking and the flexibility to harness both Graphics Processing Units (GPUs) and Central Processing Units (CPUs) capabilities. It offers mission-critical solutions across Infrastructure-as-a-Service (IaaS), including its Droplet virtual machines, storage, and networking offerings; Platform-as-a-Service (PaaS), including its Managed Database and Managed Kubernetes offerings; and Software-as-a-Service (SaaS), including its Managed Hosting and Marketplace offerings. Its customers use its platform across numerous industry verticals and for a range of use cases, such as Web and mobile applications, Website hosting, media and gaming, personal Web projects, managed services, and others.</v>
     <v>1204</v>
@@ -1061,24 +1061,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 Avenue Of The Americas, 10Th Floor, NEW YORK, NY, 10013 US</v>
-    <v>41.07</v>
+    <v>39.68</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45339.035931990627</v>
+    <v>45345.038364455468</v>
     <v>0</v>
-    <v>39.83</v>
-    <v>3466159878</v>
+    <v>36.700000000000003</v>
+    <v>3350907912</v>
     <v>DigitalOcean Holdings, Inc.</v>
     <v>DigitalOcean Holdings, Inc.</v>
-    <v>40.36</v>
-    <v>40.880000000000003</v>
-    <v>40.299999999999997</v>
-    <v>40.01</v>
+    <v>38.5</v>
+    <v>209.1138</v>
+    <v>35.85</v>
+    <v>38.96</v>
+    <v>37.74</v>
     <v>86008930</v>
     <v>DOCN</v>
     <v>DigitalOcean Holdings, Inc. (XNYS:DOCN)</v>
-    <v>1240630</v>
-    <v>991531</v>
+    <v>2472399</v>
+    <v>1165131</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -1129,6 +1130,7 @@
     <k n="Name" t="s"/>
     <k n="Official name" t="s"/>
     <k n="Open"/>
+    <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Price (Extended hours)"/>
@@ -1148,7 +1150,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1180,6 +1182,7 @@
       <v t="s">Volume average</v>
       <v t="s">Market cap</v>
       <v t="s">Beta</v>
+      <v t="s">P/E</v>
       <v t="s">Shares outstanding</v>
       <v t="s">Description</v>
       <v t="s">Employees</v>
@@ -1214,6 +1217,7 @@
     </spb>
     <spb s="3">
       <v>1</v>
+      <v>2</v>
       <v>2</v>
       <v>1</v>
       <v>3</v>
@@ -1270,6 +1274,7 @@
   </s>
   <s>
     <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
     <k n="Beta" t="i"/>
     <k n="High" t="i"/>
     <k n="Name" t="i"/>
@@ -1678,7 +1683,7 @@
       </c>
       <c r="B2" s="1" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>40.299999999999997</v>
+        <v>38.96</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1699,7 +1704,7 @@
       </c>
       <c r="B4" s="2">
         <f>B2*B3</f>
-        <v>3466.1598789999998</v>
+        <v>3350.9079128000003</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -1821,10 +1826,10 @@
   <dimension ref="B1:AV161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U65" sqref="U65"/>
+      <selection pane="bottomRight" activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1843,6 +1848,7 @@
     <col min="19" max="19" width="9.453125" style="20" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7265625" style="20"/>
     <col min="41" max="42" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2019,6 +2025,7 @@
       <c r="K4" s="22"/>
       <c r="O4" s="22"/>
       <c r="S4" s="22"/>
+      <c r="W4" s="22"/>
     </row>
     <row r="5" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
@@ -2161,6 +2168,7 @@
       <c r="V7" s="16">
         <v>27.66</v>
       </c>
+      <c r="W7" s="36"/>
       <c r="AO7" s="16">
         <v>65.489999999999995</v>
       </c>
@@ -2179,6 +2187,7 @@
       <c r="K9" s="22"/>
       <c r="O9" s="22"/>
       <c r="S9" s="22"/>
+      <c r="W9" s="22"/>
     </row>
     <row r="10" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -2214,6 +2223,11 @@
       <c r="U10" s="6">
         <v>478730</v>
       </c>
+      <c r="V10" s="6">
+        <f>AQ10</f>
+        <v>488094</v>
+      </c>
+      <c r="W10" s="23"/>
       <c r="AN10" s="6">
         <v>426739</v>
       </c>
@@ -2222,6 +2236,9 @@
       </c>
       <c r="AP10" s="6">
         <v>468065</v>
+      </c>
+      <c r="AQ10" s="6">
+        <v>488094</v>
       </c>
     </row>
     <row r="11" spans="2:48" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -2258,6 +2275,11 @@
       <c r="U11" s="9">
         <v>137959</v>
       </c>
+      <c r="V11" s="9">
+        <f>AQ11</f>
+        <v>139261</v>
+      </c>
+      <c r="W11" s="24"/>
       <c r="AN11" s="9">
         <v>72627</v>
       </c>
@@ -2266,6 +2288,9 @@
       </c>
       <c r="AP11" s="9">
         <v>129150</v>
+      </c>
+      <c r="AQ11" s="9">
+        <v>139261</v>
       </c>
     </row>
     <row r="12" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2337,9 +2362,9 @@
       </c>
       <c r="V12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="6">
+        <v>627355</v>
+      </c>
+      <c r="W12" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2409,7 +2434,7 @@
       </c>
       <c r="AQ12" s="6">
         <f t="shared" ref="AQ12" si="12">SUM(AQ10:AQ11)</f>
-        <v>0</v>
+        <v>627355</v>
       </c>
       <c r="AR12" s="6">
         <f t="shared" ref="AR12" si="13">SUM(AR10:AR11)</f>
@@ -2480,6 +2505,11 @@
       <c r="U13" s="6">
         <v>16305</v>
       </c>
+      <c r="V13" s="6">
+        <f>AQ13</f>
+        <v>16941</v>
+      </c>
+      <c r="W13" s="23"/>
       <c r="AN13" s="6">
         <v>7624</v>
       </c>
@@ -2488,6 +2518,9 @@
       </c>
       <c r="AP13" s="6">
         <v>15032</v>
+      </c>
+      <c r="AQ13" s="6">
+        <v>16941</v>
       </c>
     </row>
     <row r="14" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2538,6 +2571,11 @@
       <c r="U14" s="2">
         <v>92.06</v>
       </c>
+      <c r="V14" s="6">
+        <f>AQ14</f>
+        <v>90.99</v>
+      </c>
+      <c r="W14" s="25"/>
       <c r="AN14" s="2">
         <v>47.78</v>
       </c>
@@ -2546,6 +2584,9 @@
       </c>
       <c r="AP14" s="2">
         <v>75.19</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>90.99</v>
       </c>
     </row>
     <row r="15" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2596,6 +2637,11 @@
       <c r="U15" s="6">
         <v>713</v>
       </c>
+      <c r="V15" s="6">
+        <f>AQ15</f>
+        <v>730</v>
+      </c>
+      <c r="W15" s="23"/>
       <c r="AN15" s="6">
         <v>357</v>
       </c>
@@ -2604,6 +2650,9 @@
       </c>
       <c r="AP15" s="6">
         <v>659</v>
+      </c>
+      <c r="AQ15" s="6">
+        <v>730</v>
       </c>
     </row>
     <row r="16" spans="2:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2654,6 +2703,11 @@
       <c r="U16" s="5">
         <v>0.96</v>
       </c>
+      <c r="V16" s="5">
+        <f>AQ16</f>
+        <v>1.01</v>
+      </c>
+      <c r="W16" s="26"/>
       <c r="AN16" s="5">
         <v>1.03</v>
       </c>
@@ -2662,6 +2716,9 @@
       </c>
       <c r="AP16" s="5">
         <v>1.1499999999999999</v>
+      </c>
+      <c r="AQ16" s="5">
+        <v>1.01</v>
       </c>
     </row>
     <row r="17" spans="2:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2692,12 +2749,14 @@
       </c>
       <c r="O17" s="26"/>
       <c r="S17" s="26"/>
+      <c r="W17" s="26"/>
     </row>
     <row r="18" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G18" s="23"/>
       <c r="K18" s="23"/>
       <c r="O18" s="23"/>
       <c r="S18" s="23"/>
+      <c r="W18" s="23"/>
     </row>
     <row r="19" spans="2:48" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="18" t="s">
@@ -2707,6 +2766,7 @@
       <c r="K19" s="27"/>
       <c r="O19" s="27"/>
       <c r="S19" s="27"/>
+      <c r="W19" s="27"/>
     </row>
     <row r="20" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
@@ -2782,9 +2842,9 @@
       </c>
       <c r="V20" s="6">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="6">
+        <v>66923.38</v>
+      </c>
+      <c r="W20" s="23">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -2854,7 +2914,7 @@
       </c>
       <c r="AQ20" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>256367.08</v>
       </c>
       <c r="AR20" s="6">
         <f t="shared" si="20"/>
@@ -2951,9 +3011,9 @@
       </c>
       <c r="V21" s="6">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="6">
+        <v>52453.46</v>
+      </c>
+      <c r="W21" s="23">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -3023,7 +3083,7 @@
       </c>
       <c r="AQ21" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>200936.36</v>
       </c>
       <c r="AR21" s="6">
         <f t="shared" si="22"/>
@@ -3120,9 +3180,9 @@
       </c>
       <c r="V22" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="6">
+        <v>43409.759999999995</v>
+      </c>
+      <c r="W22" s="23">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -3192,7 +3252,7 @@
       </c>
       <c r="AQ22" s="6">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>166292.16</v>
       </c>
       <c r="AR22" s="6">
         <f t="shared" si="24"/>
@@ -3289,9 +3349,9 @@
       </c>
       <c r="V23" s="9">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="9">
+        <v>18087.400000000001</v>
+      </c>
+      <c r="W23" s="24">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
@@ -3361,7 +3421,7 @@
       </c>
       <c r="AQ23" s="9">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>69288.400000000009</v>
       </c>
       <c r="AR23" s="9">
         <f t="shared" si="26"/>
@@ -3458,9 +3518,9 @@
       </c>
       <c r="V24" s="14">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="14">
+        <v>180873.99999999997</v>
+      </c>
+      <c r="W24" s="28">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -3530,7 +3590,7 @@
       </c>
       <c r="AQ24" s="14">
         <f t="shared" ref="AQ24" si="39">SUM(AQ20:AQ23)</f>
-        <v>0</v>
+        <v>692884</v>
       </c>
       <c r="AR24" s="14">
         <f t="shared" ref="AR24" si="40">SUM(AR20:AR23)</f>
@@ -3561,6 +3621,7 @@
       <c r="K25" s="26"/>
       <c r="O25" s="26"/>
       <c r="S25" s="26"/>
+      <c r="W25" s="26"/>
     </row>
     <row r="26" spans="2:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
@@ -3611,6 +3672,11 @@
       <c r="U26" s="5">
         <v>0.37</v>
       </c>
+      <c r="V26" s="5">
+        <f>AQ26</f>
+        <v>0.37</v>
+      </c>
+      <c r="W26" s="26"/>
       <c r="AM26" s="5">
         <v>0.38</v>
       </c>
@@ -3622,6 +3688,9 @@
       </c>
       <c r="AP26" s="5">
         <v>0.38</v>
+      </c>
+      <c r="AQ26" s="5">
+        <v>0.37</v>
       </c>
     </row>
     <row r="27" spans="2:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3673,6 +3742,11 @@
       <c r="U27" s="5">
         <v>0.28999999999999998</v>
       </c>
+      <c r="V27" s="5">
+        <f>AQ27</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W27" s="26"/>
       <c r="AM27" s="5">
         <v>0.3</v>
       </c>
@@ -3684,6 +3758,9 @@
       </c>
       <c r="AP27" s="5">
         <v>0.3</v>
+      </c>
+      <c r="AQ27" s="5">
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="28" spans="2:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3735,6 +3812,11 @@
       <c r="U28" s="5">
         <v>0.24</v>
       </c>
+      <c r="V28" s="5">
+        <f>AQ28</f>
+        <v>0.24</v>
+      </c>
+      <c r="W28" s="26"/>
       <c r="AM28" s="5">
         <v>0.24</v>
       </c>
@@ -3746,6 +3828,9 @@
       </c>
       <c r="AP28" s="5">
         <v>0.22</v>
+      </c>
+      <c r="AQ28" s="5">
+        <v>0.24</v>
       </c>
     </row>
     <row r="29" spans="2:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3797,6 +3882,11 @@
       <c r="U29" s="5">
         <v>0.1</v>
       </c>
+      <c r="V29" s="5">
+        <f>AQ29</f>
+        <v>0.1</v>
+      </c>
+      <c r="W29" s="26"/>
       <c r="AM29" s="5">
         <v>0.08</v>
       </c>
@@ -3807,6 +3897,9 @@
         <v>0.1</v>
       </c>
       <c r="AP29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AQ29" s="5">
         <v>0.1</v>
       </c>
     </row>
@@ -3815,36 +3908,42 @@
       <c r="K30" s="26"/>
       <c r="O30" s="26"/>
       <c r="S30" s="26"/>
+      <c r="W30" s="26"/>
     </row>
     <row r="31" spans="2:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G31" s="26"/>
       <c r="K31" s="26"/>
       <c r="O31" s="26"/>
       <c r="S31" s="26"/>
+      <c r="W31" s="26"/>
     </row>
     <row r="32" spans="2:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G32" s="26"/>
       <c r="K32" s="26"/>
       <c r="O32" s="26"/>
       <c r="S32" s="26"/>
+      <c r="W32" s="26"/>
     </row>
     <row r="33" spans="2:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G33" s="26"/>
       <c r="K33" s="26"/>
       <c r="O33" s="26"/>
       <c r="S33" s="26"/>
+      <c r="W33" s="26"/>
     </row>
     <row r="34" spans="2:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G34" s="26"/>
       <c r="K34" s="26"/>
       <c r="O34" s="26"/>
       <c r="S34" s="26"/>
+      <c r="W34" s="26"/>
     </row>
     <row r="35" spans="2:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G35" s="26"/>
       <c r="K35" s="26"/>
       <c r="O35" s="26"/>
       <c r="S35" s="26"/>
+      <c r="W35" s="26"/>
     </row>
     <row r="36" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
@@ -3854,6 +3953,7 @@
       <c r="K36" s="22"/>
       <c r="O36" s="22"/>
       <c r="S36" s="22"/>
+      <c r="W36" s="22"/>
     </row>
     <row r="37" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
@@ -3911,6 +4011,11 @@
       <c r="U37" s="6">
         <v>219856</v>
       </c>
+      <c r="V37" s="6">
+        <f>AQ37</f>
+        <v>233557</v>
+      </c>
+      <c r="W37" s="23"/>
       <c r="AM37" s="6" t="s">
         <v>118</v>
       </c>
@@ -3922,6 +4027,9 @@
       </c>
       <c r="AP37" s="6">
         <v>206118</v>
+      </c>
+      <c r="AQ37" s="6">
+        <v>233557</v>
       </c>
     </row>
     <row r="38" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -3980,6 +4088,11 @@
       <c r="U38" s="6">
         <v>45163</v>
       </c>
+      <c r="V38" s="6">
+        <f>AQ38</f>
+        <v>43425</v>
+      </c>
+      <c r="W38" s="23"/>
       <c r="AM38" s="6" t="s">
         <v>118</v>
       </c>
@@ -3991,6 +4104,9 @@
       </c>
       <c r="AP38" s="6">
         <v>60607</v>
+      </c>
+      <c r="AQ38" s="6">
+        <v>43425</v>
       </c>
     </row>
     <row r="39" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -4049,6 +4165,11 @@
       <c r="U39" s="6">
         <v>61834</v>
       </c>
+      <c r="V39" s="6">
+        <f>AQ39</f>
+        <v>62224</v>
+      </c>
+      <c r="W39" s="23"/>
       <c r="AM39" s="6" t="s">
         <v>118</v>
       </c>
@@ -4060,6 +4181,9 @@
       </c>
       <c r="AP39" s="6">
         <v>50274</v>
+      </c>
+      <c r="AQ39" s="6">
+        <v>62224</v>
       </c>
     </row>
     <row r="40" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -4118,6 +4242,11 @@
       <c r="U40" s="6">
         <v>48412</v>
       </c>
+      <c r="V40" s="6">
+        <f>AQ40</f>
+        <v>46170</v>
+      </c>
+      <c r="W40" s="23"/>
       <c r="AM40" s="6" t="s">
         <v>118</v>
       </c>
@@ -4129,6 +4258,9 @@
       </c>
       <c r="AP40" s="6">
         <v>35951</v>
+      </c>
+      <c r="AQ40" s="6">
+        <v>46170</v>
       </c>
     </row>
     <row r="41" spans="2:48" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -4187,6 +4319,11 @@
       <c r="U41" s="9">
         <v>75835</v>
       </c>
+      <c r="V41" s="9">
+        <f>AQ41</f>
+        <v>75269</v>
+      </c>
+      <c r="W41" s="24"/>
       <c r="AM41" s="9" t="s">
         <v>118</v>
       </c>
@@ -4198,6 +4335,9 @@
       </c>
       <c r="AP41" s="9">
         <v>74721</v>
+      </c>
+      <c r="AQ41" s="9">
+        <v>75269</v>
       </c>
     </row>
     <row r="42" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -4274,9 +4414,9 @@
       </c>
       <c r="V42" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="6">
+        <v>460645</v>
+      </c>
+      <c r="W42" s="23">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -4346,7 +4486,7 @@
       </c>
       <c r="AQ42" s="6">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>460645</v>
       </c>
       <c r="AR42" s="6">
         <f t="shared" si="47"/>
@@ -4436,11 +4576,11 @@
         <f t="shared" si="48"/>
         <v>0.48737752161383285</v>
       </c>
-      <c r="V44" s="5" t="e">
+      <c r="V44" s="5">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W44" s="5" t="e">
+        <v>0.50702167612803783</v>
+      </c>
+      <c r="W44" s="26" t="e">
         <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
@@ -4478,9 +4618,9 @@
         <f t="shared" si="49"/>
         <v>0.48195458658641804</v>
       </c>
-      <c r="AQ44" s="5" t="e">
+      <c r="AQ44" s="5">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>0.50702167612803783</v>
       </c>
       <c r="AR44" s="5" t="e">
         <f t="shared" si="49"/>
@@ -4565,11 +4705,11 @@
         <f t="shared" si="50"/>
         <v>0.10011749057858568</v>
       </c>
-      <c r="V45" s="5" t="e">
+      <c r="V45" s="5">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W45" s="5" t="e">
+        <v>9.4269990990893199E-2</v>
+      </c>
+      <c r="W45" s="26" t="e">
         <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
@@ -4607,9 +4747,9 @@
         <f t="shared" si="51"/>
         <v>0.14171407460407651</v>
       </c>
-      <c r="AQ45" s="5" t="e">
+      <c r="AQ45" s="5">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v>9.4269990990893199E-2</v>
       </c>
       <c r="AR45" s="5" t="e">
         <f t="shared" si="51"/>
@@ -4694,11 +4834,11 @@
         <f t="shared" si="52"/>
         <v>0.13707381955220571</v>
       </c>
-      <c r="V46" s="5" t="e">
+      <c r="V46" s="5">
         <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W46" s="5" t="e">
+        <v>0.13508015934179249</v>
+      </c>
+      <c r="W46" s="26" t="e">
         <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
@@ -4736,9 +4876,9 @@
         <f t="shared" si="53"/>
         <v>0.11755297880847661</v>
       </c>
-      <c r="AQ46" s="5" t="e">
+      <c r="AQ46" s="5">
         <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
+        <v>0.13508015934179249</v>
       </c>
       <c r="AR46" s="5" t="e">
         <f t="shared" si="53"/>
@@ -4823,11 +4963,11 @@
         <f t="shared" si="54"/>
         <v>0.10731988472622478</v>
       </c>
-      <c r="V47" s="5" t="e">
+      <c r="V47" s="5">
         <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W47" s="5" t="e">
+        <v>0.10022902669083568</v>
+      </c>
+      <c r="W47" s="26" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
@@ -4865,9 +5005,9 @@
         <f t="shared" si="55"/>
         <v>8.4062281520140475E-2</v>
       </c>
-      <c r="AQ47" s="5" t="e">
+      <c r="AQ47" s="5">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
+        <v>0.10022902669083568</v>
       </c>
       <c r="AR47" s="5" t="e">
         <f t="shared" si="55"/>
@@ -4952,11 +5092,11 @@
         <f t="shared" si="56"/>
         <v>0.16811128352915097</v>
       </c>
-      <c r="V48" s="5" t="e">
+      <c r="V48" s="5">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W48" s="5" t="e">
+        <v>0.16339914684844078</v>
+      </c>
+      <c r="W48" s="26" t="e">
         <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
@@ -4994,9 +5134,9 @@
         <f t="shared" si="57"/>
         <v>0.17471607848088835</v>
       </c>
-      <c r="AQ48" s="5" t="e">
+      <c r="AQ48" s="5">
         <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
+        <v>0.16339914684844078</v>
       </c>
       <c r="AR48" s="5" t="e">
         <f t="shared" si="57"/>
@@ -5027,6 +5167,7 @@
       <c r="K49" s="27"/>
       <c r="O49" s="27"/>
       <c r="S49" s="27"/>
+      <c r="W49" s="27"/>
     </row>
     <row r="50" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="6" t="s">
@@ -5069,6 +5210,11 @@
       <c r="U50" s="6">
         <v>613305</v>
       </c>
+      <c r="V50" s="6">
+        <f>AQ50</f>
+        <v>657505</v>
+      </c>
+      <c r="W50" s="23"/>
       <c r="AN50" s="6">
         <v>442778</v>
       </c>
@@ -5077,6 +5223,9 @@
       </c>
       <c r="AP50" s="6">
         <v>564763</v>
+      </c>
+      <c r="AQ50" s="6">
+        <v>657505</v>
       </c>
     </row>
     <row r="51" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -5120,6 +5269,11 @@
       <c r="U51" s="6">
         <v>1511</v>
       </c>
+      <c r="V51" s="6">
+        <f>AQ51</f>
+        <v>1511</v>
+      </c>
+      <c r="W51" s="23"/>
       <c r="AN51" s="6">
         <v>1511</v>
       </c>
@@ -5127,6 +5281,9 @@
         <v>1511</v>
       </c>
       <c r="AP51" s="6">
+        <v>1511</v>
+      </c>
+      <c r="AQ51" s="6">
         <v>1511</v>
       </c>
     </row>
@@ -5171,6 +5328,11 @@
       <c r="U52" s="6">
         <v>6820</v>
       </c>
+      <c r="V52" s="6">
+        <f>AQ52</f>
+        <v>6820</v>
+      </c>
+      <c r="W52" s="23"/>
       <c r="AN52" s="6">
         <v>6820</v>
       </c>
@@ -5178,6 +5340,9 @@
         <v>6820</v>
       </c>
       <c r="AP52" s="6">
+        <v>6820</v>
+      </c>
+      <c r="AQ52" s="6">
         <v>6820</v>
       </c>
     </row>
@@ -5222,6 +5387,11 @@
       <c r="U53" s="6">
         <v>82377</v>
       </c>
+      <c r="V53" s="6">
+        <f>AQ53</f>
+        <v>84279</v>
+      </c>
+      <c r="W53" s="23"/>
       <c r="AN53" s="6">
         <v>61640</v>
       </c>
@@ -5230,6 +5400,9 @@
       </c>
       <c r="AP53" s="6">
         <v>78649</v>
+      </c>
+      <c r="AQ53" s="6">
+        <v>84279</v>
       </c>
     </row>
     <row r="54" spans="2:48" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -5273,6 +5446,11 @@
       <c r="U54" s="9">
         <v>11922</v>
       </c>
+      <c r="V54" s="9">
+        <f>AQ54</f>
+        <v>11938</v>
+      </c>
+      <c r="W54" s="24"/>
       <c r="AN54" s="9">
         <v>0</v>
       </c>
@@ -5281,6 +5459,9 @@
       </c>
       <c r="AP54" s="9">
         <v>0</v>
+      </c>
+      <c r="AQ54" s="9">
+        <v>11938</v>
       </c>
     </row>
     <row r="55" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -5357,9 +5538,9 @@
       </c>
       <c r="V55" s="6">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="W55" s="6">
+        <v>750115</v>
+      </c>
+      <c r="W55" s="23">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -5429,7 +5610,7 @@
       </c>
       <c r="AQ55" s="6">
         <f t="shared" ref="AQ55:AV55" si="61">SUM(AQ50:AQ54)</f>
-        <v>0</v>
+        <v>762053</v>
       </c>
       <c r="AR55" s="6">
         <f t="shared" si="61"/>
@@ -5493,6 +5674,11 @@
       <c r="U56" s="6">
         <v>-363141</v>
       </c>
+      <c r="V56" s="6">
+        <f>AQ56</f>
+        <v>-387083</v>
+      </c>
+      <c r="W56" s="23"/>
       <c r="AN56" s="6">
         <v>-36186</v>
       </c>
@@ -5501,6 +5687,9 @@
       </c>
       <c r="AP56" s="6">
         <v>-61244</v>
+      </c>
+      <c r="AQ56" s="6">
+        <v>-387083</v>
       </c>
     </row>
     <row r="57" spans="2:48" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -5545,6 +5734,11 @@
       <c r="U57" s="9">
         <v>-67988</v>
       </c>
+      <c r="V57" s="9">
+        <f>AQ57</f>
+        <v>-69526</v>
+      </c>
+      <c r="W57" s="24"/>
       <c r="AN57" s="9">
         <v>-237607</v>
       </c>
@@ -5553,6 +5747,9 @@
       </c>
       <c r="AP57" s="9">
         <v>-317329</v>
+      </c>
+      <c r="AQ57" s="9">
+        <v>-69526</v>
       </c>
     </row>
     <row r="58" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -5629,9 +5826,9 @@
       </c>
       <c r="V58" s="6">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="6">
+        <v>293506</v>
+      </c>
+      <c r="W58" s="23">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
@@ -5701,7 +5898,7 @@
       </c>
       <c r="AQ58" s="6">
         <f t="shared" ref="AQ58" si="74">AQ55+SUM(AQ56:AQ57)</f>
-        <v>0</v>
+        <v>305444</v>
       </c>
       <c r="AR58" s="6">
         <f t="shared" ref="AR58" si="75">AR55+SUM(AR56:AR57)</f>
@@ -5732,6 +5929,7 @@
       <c r="K59" s="23"/>
       <c r="O59" s="23"/>
       <c r="S59" s="23"/>
+      <c r="W59" s="23"/>
     </row>
     <row r="60" spans="2:48" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="5" t="s">
@@ -5805,11 +6003,11 @@
         <f t="shared" si="80"/>
         <v>0.85664899746485368</v>
       </c>
-      <c r="V60" s="5" t="e">
+      <c r="V60" s="5">
         <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W60" s="5" t="e">
+        <v>0.87653893069729305</v>
+      </c>
+      <c r="W60" s="26" t="e">
         <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
@@ -5877,9 +6075,9 @@
         <f t="shared" si="81"/>
         <v>0.86654248683913748</v>
       </c>
-      <c r="AQ60" s="5" t="e">
+      <c r="AQ60" s="5">
         <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
+        <v>0.8628074425269634</v>
       </c>
       <c r="AR60" s="5" t="e">
         <f t="shared" si="81"/>
@@ -5974,11 +6172,11 @@
         <f t="shared" si="82"/>
         <v>2.1105267936335002E-3</v>
       </c>
-      <c r="V61" s="5" t="e">
+      <c r="V61" s="5">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W61" s="5" t="e">
+        <v>2.014357798470901E-3</v>
+      </c>
+      <c r="W61" s="26" t="e">
         <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
@@ -6046,9 +6244,9 @@
         <f t="shared" si="83"/>
         <v>2.3183985098420698E-3</v>
       </c>
-      <c r="AQ61" s="5" t="e">
+      <c r="AQ61" s="5">
         <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
+        <v>1.9828017211401309E-3</v>
       </c>
       <c r="AR61" s="5" t="e">
         <f t="shared" si="83"/>
@@ -6143,11 +6341,11 @@
         <f t="shared" si="84"/>
         <v>9.5260044557117611E-3</v>
       </c>
-      <c r="V62" s="5" t="e">
+      <c r="V62" s="5">
         <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W62" s="5" t="e">
+        <v>9.0919392359838161E-3</v>
+      </c>
+      <c r="W62" s="26" t="e">
         <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
@@ -6215,9 +6413,9 @@
         <f t="shared" si="85"/>
         <v>1.0464247410405636E-2</v>
       </c>
-      <c r="AQ62" s="5" t="e">
+      <c r="AQ62" s="5">
         <f t="shared" si="85"/>
-        <v>#DIV/0!</v>
+        <v>8.9495087612016487E-3</v>
       </c>
       <c r="AR62" s="5" t="e">
         <f t="shared" si="85"/>
@@ -6312,11 +6510,11 @@
         <f t="shared" si="86"/>
         <v>0.11506212156131493</v>
       </c>
-      <c r="V63" s="5" t="e">
+      <c r="V63" s="5">
         <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W63" s="5" t="e">
+        <v>0.1123547722682522</v>
+      </c>
+      <c r="W63" s="26" t="e">
         <f t="shared" si="86"/>
         <v>#DIV/0!</v>
       </c>
@@ -6384,9 +6582,9 @@
         <f t="shared" si="87"/>
         <v>0.12067486724061478</v>
       </c>
-      <c r="AQ63" s="5" t="e">
+      <c r="AQ63" s="5">
         <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
+        <v>0.1105946699245328</v>
       </c>
       <c r="AR63" s="5" t="e">
         <f t="shared" si="87"/>
@@ -6417,6 +6615,7 @@
       <c r="K64" s="22"/>
       <c r="O64" s="22"/>
       <c r="S64" s="22"/>
+      <c r="W64" s="22"/>
     </row>
     <row r="65" spans="2:48" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="14" t="s">
@@ -6470,6 +6669,11 @@
       <c r="U65" s="14">
         <v>177062</v>
       </c>
+      <c r="V65" s="14">
+        <f>AQ65-U65-T65-S65</f>
+        <v>180874</v>
+      </c>
+      <c r="W65" s="28"/>
       <c r="AM65" s="14">
         <v>254823</v>
       </c>
@@ -6481,6 +6685,9 @@
       </c>
       <c r="AP65" s="14">
         <v>576322</v>
+      </c>
+      <c r="AQ65" s="14">
+        <v>692884</v>
       </c>
     </row>
     <row r="66" spans="2:48" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -6535,6 +6742,11 @@
       <c r="U66" s="9">
         <v>70329</v>
       </c>
+      <c r="V66" s="9">
+        <f>AQ66-U66-T66-S66</f>
+        <v>74405</v>
+      </c>
+      <c r="W66" s="24"/>
       <c r="AM66" s="9">
         <v>122259</v>
       </c>
@@ -6546,6 +6758,9 @@
       </c>
       <c r="AP66" s="9">
         <v>211927</v>
+      </c>
+      <c r="AQ66" s="9">
+        <v>283967</v>
       </c>
     </row>
     <row r="67" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -6622,9 +6837,9 @@
       </c>
       <c r="V67" s="6">
         <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="W67" s="6">
+        <v>106469</v>
+      </c>
+      <c r="W67" s="23">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
@@ -6694,7 +6909,7 @@
       </c>
       <c r="AQ67" s="6">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>408917</v>
       </c>
       <c r="AR67" s="6">
         <f t="shared" si="95"/>
@@ -6789,11 +7004,11 @@
         <f t="shared" si="97"/>
         <v>0.6028001491003151</v>
       </c>
-      <c r="V68" s="5" t="e">
+      <c r="V68" s="5">
         <f t="shared" si="97"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W68" s="5" t="e">
+        <v>0.58863628824485559</v>
+      </c>
+      <c r="W68" s="26" t="e">
         <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
@@ -6861,9 +7076,9 @@
         <f t="shared" si="103"/>
         <v>0.63227674806792034</v>
       </c>
-      <c r="AQ68" s="5" t="e">
+      <c r="AQ68" s="5">
         <f t="shared" si="103"/>
-        <v>#DIV/0!</v>
+        <v>0.59016660797478371</v>
       </c>
       <c r="AR68" s="5" t="e">
         <f t="shared" si="103"/>
@@ -6894,6 +7109,7 @@
       <c r="K69" s="29"/>
       <c r="O69" s="29"/>
       <c r="S69" s="29"/>
+      <c r="W69" s="29"/>
     </row>
     <row r="70" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="6" t="s">
@@ -6947,6 +7163,11 @@
       <c r="U70" s="6">
         <v>32627</v>
       </c>
+      <c r="V70" s="6">
+        <f>AQ70-U70-T70-S70</f>
+        <v>30897</v>
+      </c>
+      <c r="W70" s="23"/>
       <c r="AM70" s="6">
         <v>59973</v>
       </c>
@@ -6958,6 +7179,9 @@
       </c>
       <c r="AP70" s="6">
         <v>143885</v>
+      </c>
+      <c r="AQ70" s="6">
+        <v>140365</v>
       </c>
     </row>
     <row r="71" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -7001,7 +7225,7 @@
       </c>
       <c r="R71" s="6">
         <f>AP71-Q71-P71-O71</f>
-        <v>25184</v>
+        <v>24662</v>
       </c>
       <c r="S71" s="23">
         <v>17709</v>
@@ -7012,6 +7236,11 @@
       <c r="U71" s="6">
         <v>19015</v>
       </c>
+      <c r="V71" s="6">
+        <f>AQ71-U71-T71-S71</f>
+        <v>20203</v>
+      </c>
+      <c r="W71" s="23"/>
       <c r="AM71" s="6">
         <v>31340</v>
       </c>
@@ -7022,7 +7251,10 @@
         <v>50878</v>
       </c>
       <c r="AP71" s="6">
-        <v>81544</v>
+        <v>81022</v>
+      </c>
+      <c r="AQ71" s="6">
+        <v>73027</v>
       </c>
     </row>
     <row r="72" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -7080,6 +7312,11 @@
         <f>20064</f>
         <v>20064</v>
       </c>
+      <c r="V72" s="6">
+        <f>AQ72-U72-T72-S72</f>
+        <v>44881</v>
+      </c>
+      <c r="W72" s="23"/>
       <c r="AM72" s="6">
         <v>71156</v>
       </c>
@@ -7091,6 +7328,9 @@
       </c>
       <c r="AP72" s="6">
         <v>165185</v>
+      </c>
+      <c r="AQ72" s="6">
+        <v>162742</v>
       </c>
     </row>
     <row r="73" spans="2:48" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -7140,6 +7380,26 @@
       <c r="U73" s="9">
         <v>-441</v>
       </c>
+      <c r="V73" s="6">
+        <f>AQ73-U73-T73-S73</f>
+        <v>25</v>
+      </c>
+      <c r="W73" s="24"/>
+      <c r="AM73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="9">
+        <v>20887</v>
+      </c>
     </row>
     <row r="74" spans="2:48" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B74" s="10" t="s">
@@ -7199,7 +7459,7 @@
       </c>
       <c r="R74" s="10">
         <f t="shared" si="104"/>
-        <v>114705</v>
+        <v>114183</v>
       </c>
       <c r="S74" s="30">
         <f t="shared" si="104"/>
@@ -7215,9 +7475,9 @@
       </c>
       <c r="V74" s="10">
         <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="W74" s="10">
+        <v>96006</v>
+      </c>
+      <c r="W74" s="30">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
@@ -7270,24 +7530,24 @@
         <v>0</v>
       </c>
       <c r="AM74" s="10">
-        <f t="shared" si="105"/>
+        <f>SUM(AM70:AM73)</f>
         <v>162469</v>
       </c>
       <c r="AN74" s="10">
-        <f t="shared" si="105"/>
+        <f>SUM(AN70:AN73)</f>
         <v>188639</v>
       </c>
       <c r="AO74" s="10">
-        <f t="shared" si="105"/>
+        <f>SUM(AO70:AO73)</f>
         <v>269152</v>
       </c>
       <c r="AP74" s="10">
-        <f t="shared" si="105"/>
-        <v>390614</v>
+        <f>SUM(AP70:AP73)</f>
+        <v>390092</v>
       </c>
       <c r="AQ74" s="10">
-        <f t="shared" si="105"/>
-        <v>0</v>
+        <f>SUM(AQ70:AQ73)</f>
+        <v>397021</v>
       </c>
       <c r="AR74" s="10">
         <f t="shared" si="105"/>
@@ -7368,7 +7628,7 @@
       </c>
       <c r="R75" s="6">
         <f t="shared" si="107"/>
-        <v>-11888</v>
+        <v>-11366</v>
       </c>
       <c r="S75" s="23">
         <f t="shared" si="107"/>
@@ -7384,9 +7644,9 @@
       </c>
       <c r="V75" s="6">
         <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="W75" s="6">
+        <v>10463</v>
+      </c>
+      <c r="W75" s="23">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
@@ -7452,11 +7712,11 @@
       </c>
       <c r="AP75" s="6">
         <f t="shared" si="113"/>
-        <v>-26219</v>
+        <v>-25697</v>
       </c>
       <c r="AQ75" s="6">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>11896</v>
       </c>
       <c r="AR75" s="6">
         <f t="shared" si="113"/>
@@ -7537,7 +7797,7 @@
       </c>
       <c r="R76" s="5">
         <f t="shared" si="115"/>
-        <v>-7.2933410225892337E-2</v>
+        <v>-6.973091694376618E-2</v>
       </c>
       <c r="S76" s="26">
         <f t="shared" si="115"/>
@@ -7551,11 +7811,11 @@
         <f t="shared" si="115"/>
         <v>0.20031401430007567</v>
       </c>
-      <c r="V76" s="5" t="e">
+      <c r="V76" s="5">
         <f t="shared" si="115"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W76" s="5" t="e">
+        <v>5.7846898946227764E-2</v>
+      </c>
+      <c r="W76" s="26" t="e">
         <f t="shared" si="115"/>
         <v>#DIV/0!</v>
       </c>
@@ -7621,11 +7881,11 @@
       </c>
       <c r="AP76" s="5">
         <f t="shared" si="121"/>
-        <v>-4.5493664999774433E-2</v>
-      </c>
-      <c r="AQ76" s="5" t="e">
+        <v>-4.4587921335642225E-2</v>
+      </c>
+      <c r="AQ76" s="5">
         <f t="shared" si="121"/>
-        <v>#DIV/0!</v>
+        <v>1.7168819023097661E-2</v>
       </c>
       <c r="AR76" s="5" t="e">
         <f t="shared" si="121"/>
@@ -7656,6 +7916,7 @@
       <c r="K77" s="29"/>
       <c r="O77" s="29"/>
       <c r="S77" s="29"/>
+      <c r="W77" s="29"/>
     </row>
     <row r="78" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78" s="6" t="s">
@@ -7709,6 +7970,11 @@
       <c r="U78" s="6">
         <v>2333</v>
       </c>
+      <c r="V78" s="6">
+        <f>AQ78-U78-T78-S78</f>
+        <v>2311</v>
+      </c>
+      <c r="W78" s="23"/>
       <c r="AM78" s="6">
         <v>9356</v>
       </c>
@@ -7720,6 +7986,9 @@
       </c>
       <c r="AP78" s="6">
         <v>8396</v>
+      </c>
+      <c r="AQ78" s="6">
+        <v>8945</v>
       </c>
     </row>
     <row r="79" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -7774,6 +8043,11 @@
       <c r="U79" s="6">
         <v>0</v>
       </c>
+      <c r="V79" s="6">
+        <f>AQ79-U79-T79-S79</f>
+        <v>0</v>
+      </c>
+      <c r="W79" s="23"/>
       <c r="AM79" s="6">
         <v>0</v>
       </c>
@@ -7785,6 +8059,9 @@
       </c>
       <c r="AP79" s="6">
         <v>407</v>
+      </c>
+      <c r="AQ79" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:48" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -7839,6 +8116,11 @@
       <c r="U80" s="9">
         <v>-3979</v>
       </c>
+      <c r="V80" s="6">
+        <f>AQ80-U80-T80-S80</f>
+        <v>-4858</v>
+      </c>
+      <c r="W80" s="24"/>
       <c r="AM80" s="9">
         <v>336</v>
       </c>
@@ -7850,6 +8132,9 @@
       </c>
       <c r="AP80" s="9">
         <v>-10615</v>
+      </c>
+      <c r="AQ80" s="9">
+        <v>-23825</v>
       </c>
     </row>
     <row r="81" spans="2:48" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7926,9 +8211,9 @@
       </c>
       <c r="V81" s="10">
         <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="W81" s="10">
+        <v>-2547</v>
+      </c>
+      <c r="W81" s="30">
         <f t="shared" si="123"/>
         <v>0</v>
       </c>
@@ -7998,7 +8283,7 @@
       </c>
       <c r="AQ81" s="10">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>-14880</v>
       </c>
       <c r="AR81" s="10">
         <f t="shared" si="129"/>
@@ -8079,7 +8364,7 @@
       </c>
       <c r="R82" s="6">
         <f t="shared" si="131"/>
-        <v>-9594</v>
+        <v>-9072</v>
       </c>
       <c r="S82" s="23">
         <f t="shared" si="131"/>
@@ -8095,9 +8380,9 @@
       </c>
       <c r="V82" s="6">
         <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="W82" s="6">
+        <v>13010</v>
+      </c>
+      <c r="W82" s="23">
         <f t="shared" si="131"/>
         <v>0</v>
       </c>
@@ -8163,11 +8448,11 @@
       </c>
       <c r="AP82" s="6">
         <f t="shared" si="137"/>
-        <v>-24407</v>
+        <v>-23885</v>
       </c>
       <c r="AQ82" s="6">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>26776</v>
       </c>
       <c r="AR82" s="6">
         <f t="shared" si="137"/>
@@ -8223,7 +8508,7 @@
       </c>
       <c r="R83" s="6">
         <f>AP83-Q83-P83-O83</f>
-        <v>-2735</v>
+        <v>1308</v>
       </c>
       <c r="S83" s="24">
         <v>7608</v>
@@ -8234,6 +8519,11 @@
       <c r="U83" s="9">
         <v>17939</v>
       </c>
+      <c r="V83" s="6">
+        <f>AQ83-U83-T83-S83</f>
+        <v>-14864</v>
+      </c>
+      <c r="W83" s="24"/>
       <c r="AM83" s="9">
         <v>793</v>
       </c>
@@ -8244,7 +8534,10 @@
         <v>1302</v>
       </c>
       <c r="AP83" s="9">
-        <v>-124</v>
+        <v>3919</v>
+      </c>
+      <c r="AQ83" s="9">
+        <v>7367</v>
       </c>
     </row>
     <row r="84" spans="2:48" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -8305,7 +8598,7 @@
       </c>
       <c r="R84" s="14">
         <f t="shared" si="139"/>
-        <v>-6859</v>
+        <v>-10380</v>
       </c>
       <c r="S84" s="28">
         <f t="shared" si="139"/>
@@ -8321,9 +8614,9 @@
       </c>
       <c r="V84" s="14">
         <f t="shared" si="139"/>
-        <v>0</v>
-      </c>
-      <c r="W84" s="14">
+        <v>27874</v>
+      </c>
+      <c r="W84" s="28">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
@@ -8389,11 +8682,11 @@
       </c>
       <c r="AP84" s="14">
         <f t="shared" si="145"/>
-        <v>-24283</v>
+        <v>-27804</v>
       </c>
       <c r="AQ84" s="14">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>19409</v>
       </c>
       <c r="AR84" s="14">
         <f t="shared" si="145"/>
@@ -8479,7 +8772,7 @@
       </c>
       <c r="R87" s="2">
         <f t="shared" si="147"/>
-        <v>-6.8041584826300017E-2</v>
+        <v>-0.10297006130587465</v>
       </c>
       <c r="S87" s="25">
         <f t="shared" si="147"/>
@@ -8493,11 +8786,11 @@
         <f t="shared" si="147"/>
         <v>0.21872540408591604</v>
       </c>
-      <c r="V87" s="2" t="e">
+      <c r="V87" s="2">
         <f t="shared" si="147"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W87" s="2" t="e">
+        <v>0.30922665601668498</v>
+      </c>
+      <c r="W87" s="25" t="e">
         <f t="shared" si="147"/>
         <v>#DIV/0!</v>
       </c>
@@ -8563,11 +8856,11 @@
       </c>
       <c r="AP87" s="2">
         <f t="shared" si="153"/>
-        <v>-0.24088843918020753</v>
-      </c>
-      <c r="AQ87" s="2" t="e">
+        <v>-0.27581691565978217</v>
+      </c>
+      <c r="AQ87" s="2">
         <f t="shared" si="153"/>
-        <v>#DIV/0!</v>
+        <v>0.21531822367180306</v>
       </c>
       <c r="AR87" s="2" t="e">
         <f t="shared" si="153"/>
@@ -8642,6 +8935,11 @@
       <c r="U88" s="6">
         <v>87667</v>
       </c>
+      <c r="V88" s="6">
+        <f>AQ88</f>
+        <v>90141</v>
+      </c>
+      <c r="W88" s="23"/>
       <c r="AM88" s="6">
         <v>38004</v>
       </c>
@@ -8653,6 +8951,9 @@
       </c>
       <c r="AP88" s="6">
         <v>100806</v>
+      </c>
+      <c r="AQ88" s="6">
+        <v>90141</v>
       </c>
     </row>
     <row r="89" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -8675,6 +8976,7 @@
       <c r="U89" s="6">
         <v>102674</v>
       </c>
+      <c r="W89" s="23"/>
     </row>
     <row r="91" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="3" t="s">
@@ -8684,6 +8986,7 @@
       <c r="K91" s="22"/>
       <c r="O91" s="22"/>
       <c r="S91" s="22"/>
+      <c r="W91" s="22"/>
     </row>
     <row r="92" spans="2:48" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B92" s="7" t="s">
@@ -8693,6 +8996,7 @@
       <c r="K92" s="31"/>
       <c r="O92" s="31"/>
       <c r="S92" s="31"/>
+      <c r="W92" s="31"/>
     </row>
     <row r="93" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B93" s="6" t="s">
@@ -8738,6 +9042,11 @@
       <c r="U93" s="6">
         <v>79361</v>
       </c>
+      <c r="V93" s="6">
+        <f>AQ93</f>
+        <v>317236</v>
+      </c>
+      <c r="W93" s="23"/>
       <c r="AN93" s="6">
         <v>100311</v>
       </c>
@@ -8746,6 +9055,9 @@
       </c>
       <c r="AP93" s="6">
         <v>140772</v>
+      </c>
+      <c r="AQ93" s="6">
+        <v>317236</v>
       </c>
     </row>
     <row r="94" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -8792,6 +9104,11 @@
       <c r="U94" s="6">
         <v>304720</v>
       </c>
+      <c r="V94" s="6">
+        <f>AQ94</f>
+        <v>94532</v>
+      </c>
+      <c r="W94" s="23"/>
       <c r="AN94" s="6">
         <v>0</v>
       </c>
@@ -8800,6 +9117,9 @@
       </c>
       <c r="AP94" s="6">
         <v>723462</v>
+      </c>
+      <c r="AQ94" s="6">
+        <v>94532</v>
       </c>
     </row>
     <row r="95" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -8846,6 +9166,11 @@
       <c r="U95" s="6">
         <v>60237</v>
       </c>
+      <c r="V95" s="6">
+        <f>AQ95</f>
+        <v>62186</v>
+      </c>
+      <c r="W95" s="23"/>
       <c r="AN95" s="6">
         <v>28098</v>
       </c>
@@ -8854,6 +9179,9 @@
       </c>
       <c r="AP95" s="6">
         <v>53833</v>
+      </c>
+      <c r="AQ95" s="6">
+        <v>62186</v>
       </c>
     </row>
     <row r="96" spans="2:48" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -8900,6 +9228,11 @@
       <c r="U96" s="9">
         <v>27141</v>
       </c>
+      <c r="V96" s="9">
+        <f>AQ96</f>
+        <v>29040</v>
+      </c>
+      <c r="W96" s="24"/>
       <c r="AN96" s="9">
         <v>19544</v>
       </c>
@@ -8908,6 +9241,9 @@
       </c>
       <c r="AP96" s="9">
         <v>28485</v>
+      </c>
+      <c r="AQ96" s="9">
+        <v>29040</v>
       </c>
     </row>
     <row r="97" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -8984,9 +9320,9 @@
       </c>
       <c r="V97" s="6">
         <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="W97" s="6">
+        <v>502994</v>
+      </c>
+      <c r="W97" s="23">
         <f t="shared" si="155"/>
         <v>0</v>
       </c>
@@ -9056,7 +9392,7 @@
       </c>
       <c r="AQ97" s="6">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>502994</v>
       </c>
       <c r="AR97" s="6">
         <f t="shared" si="161"/>
@@ -9087,6 +9423,7 @@
       <c r="K98" s="31"/>
       <c r="O98" s="31"/>
       <c r="S98" s="31"/>
+      <c r="W98" s="31"/>
     </row>
     <row r="99" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
@@ -9131,6 +9468,10 @@
       <c r="U99" s="6">
         <v>284806</v>
       </c>
+      <c r="V99" s="6">
+        <f>AQ99</f>
+        <v>305444</v>
+      </c>
       <c r="AN99" s="6">
         <v>238956</v>
       </c>
@@ -9139,6 +9480,9 @@
       </c>
       <c r="AP99" s="6">
         <v>273170</v>
+      </c>
+      <c r="AQ99" s="6">
+        <v>305444</v>
       </c>
     </row>
     <row r="100" spans="2:48" x14ac:dyDescent="0.35">
@@ -9184,6 +9528,10 @@
       <c r="U100" s="6">
         <v>1747</v>
       </c>
+      <c r="V100" s="6">
+        <f>AQ100</f>
+        <v>1747</v>
+      </c>
       <c r="AN100" s="6">
         <v>2226</v>
       </c>
@@ -9192,6 +9540,9 @@
       </c>
       <c r="AP100" s="6">
         <v>1935</v>
+      </c>
+      <c r="AQ100" s="6">
+        <v>1747</v>
       </c>
     </row>
     <row r="101" spans="2:48" x14ac:dyDescent="0.35">
@@ -9237,6 +9588,10 @@
       <c r="U101" s="6">
         <v>348322</v>
       </c>
+      <c r="V101" s="6">
+        <f>AQ101</f>
+        <v>348322</v>
+      </c>
       <c r="AN101" s="6">
         <v>2674</v>
       </c>
@@ -9245,6 +9600,9 @@
       </c>
       <c r="AP101" s="6">
         <v>313718</v>
+      </c>
+      <c r="AQ101" s="6">
+        <v>348322</v>
       </c>
     </row>
     <row r="102" spans="2:48" x14ac:dyDescent="0.35">
@@ -9290,6 +9648,10 @@
       <c r="U102" s="6">
         <v>145886</v>
       </c>
+      <c r="V102" s="6">
+        <f>AQ102</f>
+        <v>140151</v>
+      </c>
       <c r="AN102" s="6">
         <v>34649</v>
       </c>
@@ -9298,6 +9660,9 @@
       </c>
       <c r="AP102" s="6">
         <v>118928</v>
+      </c>
+      <c r="AQ102" s="6">
+        <v>140151</v>
       </c>
     </row>
     <row r="103" spans="2:48" x14ac:dyDescent="0.35">
@@ -9343,7 +9708,11 @@
       <c r="U103" s="6">
         <v>166294</v>
       </c>
-      <c r="W103" s="6"/>
+      <c r="V103" s="6">
+        <f>AQ103</f>
+        <v>155201</v>
+      </c>
+      <c r="W103" s="23"/>
       <c r="AN103" s="6">
         <v>0</v>
       </c>
@@ -9352,6 +9721,9 @@
       </c>
       <c r="AP103" s="6">
         <v>154501</v>
+      </c>
+      <c r="AQ103" s="6">
+        <v>155201</v>
       </c>
     </row>
     <row r="104" spans="2:48" x14ac:dyDescent="0.35">
@@ -9397,6 +9769,10 @@
       <c r="U104" s="6">
         <v>731</v>
       </c>
+      <c r="V104" s="6">
+        <f>AQ104</f>
+        <v>1994</v>
+      </c>
       <c r="AN104" s="6">
         <v>82</v>
       </c>
@@ -9405,6 +9781,9 @@
       </c>
       <c r="AP104" s="6">
         <v>751</v>
+      </c>
+      <c r="AQ104" s="6">
+        <v>1994</v>
       </c>
     </row>
     <row r="105" spans="2:48" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -9451,6 +9830,11 @@
       <c r="U105" s="8">
         <v>5892</v>
       </c>
+      <c r="V105" s="6">
+        <f>AQ105</f>
+        <v>5114</v>
+      </c>
+      <c r="W105" s="32"/>
       <c r="AN105" s="8">
         <v>3712</v>
       </c>
@@ -9459,6 +9843,9 @@
       </c>
       <c r="AP105" s="8">
         <v>6553</v>
+      </c>
+      <c r="AQ105" s="8">
+        <v>5114</v>
       </c>
     </row>
     <row r="106" spans="2:48" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -9535,9 +9922,9 @@
       </c>
       <c r="V106" s="13">
         <f t="shared" si="166"/>
-        <v>0</v>
-      </c>
-      <c r="W106" s="13">
+        <v>957973</v>
+      </c>
+      <c r="W106" s="33">
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
@@ -9609,7 +9996,7 @@
       </c>
       <c r="AQ106" s="13">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>957973</v>
       </c>
       <c r="AR106" s="13">
         <f t="shared" si="172"/>
@@ -9706,9 +10093,9 @@
       </c>
       <c r="V107" s="14">
         <f t="shared" si="174"/>
-        <v>0</v>
-      </c>
-      <c r="W107" s="14">
+        <v>1460967</v>
+      </c>
+      <c r="W107" s="28">
         <f t="shared" si="174"/>
         <v>0</v>
       </c>
@@ -9780,7 +10167,7 @@
       </c>
       <c r="AQ107" s="14">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1460967</v>
       </c>
       <c r="AR107" s="14">
         <f t="shared" si="180"/>
@@ -9811,6 +10198,7 @@
       <c r="K108" s="31"/>
       <c r="O108" s="31"/>
       <c r="S108" s="31"/>
+      <c r="W108" s="31"/>
     </row>
     <row r="109" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B109" s="6" t="s">
@@ -9856,6 +10244,11 @@
       <c r="U109" s="6">
         <v>14306</v>
       </c>
+      <c r="V109" s="6">
+        <f>AQ109</f>
+        <v>3957</v>
+      </c>
+      <c r="W109" s="23"/>
       <c r="AN109" s="6">
         <v>12433</v>
       </c>
@@ -9864,6 +10257,9 @@
       </c>
       <c r="AP109" s="6">
         <v>21138</v>
+      </c>
+      <c r="AQ109" s="6">
+        <v>3957</v>
       </c>
     </row>
     <row r="110" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -9910,6 +10306,11 @@
       <c r="U110" s="6">
         <v>24779</v>
       </c>
+      <c r="V110" s="6">
+        <f>AQ110</f>
+        <v>31046</v>
+      </c>
+      <c r="W110" s="23"/>
       <c r="AN110" s="6">
         <v>27025</v>
       </c>
@@ -9918,6 +10319,9 @@
       </c>
       <c r="AP110" s="6">
         <v>33987</v>
+      </c>
+      <c r="AQ110" s="6">
+        <v>31046</v>
       </c>
     </row>
     <row r="111" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -9964,6 +10368,11 @@
       <c r="U111" s="6">
         <v>5094</v>
       </c>
+      <c r="V111" s="6">
+        <f>AQ111</f>
+        <v>5340</v>
+      </c>
+      <c r="W111" s="23"/>
       <c r="AN111" s="6">
         <v>4873</v>
       </c>
@@ -9972,6 +10381,9 @@
       </c>
       <c r="AP111" s="6">
         <v>5550</v>
+      </c>
+      <c r="AQ111" s="6">
+        <v>5340</v>
       </c>
     </row>
     <row r="112" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -10018,6 +10430,11 @@
       <c r="U112" s="6">
         <v>76122</v>
       </c>
+      <c r="V112" s="6">
+        <f>AQ112</f>
+        <v>81320</v>
+      </c>
+      <c r="W112" s="23"/>
       <c r="AN112" s="6">
         <v>0</v>
       </c>
@@ -10026,6 +10443,9 @@
       </c>
       <c r="AP112" s="6">
         <v>57682</v>
+      </c>
+      <c r="AQ112" s="6">
+        <v>81320</v>
       </c>
     </row>
     <row r="113" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -10072,6 +10492,11 @@
       <c r="U113" s="6">
         <v>0</v>
       </c>
+      <c r="V113" s="6">
+        <f>AQ113</f>
+        <v>0</v>
+      </c>
+      <c r="W113" s="23"/>
       <c r="AN113" s="6">
         <v>17468</v>
       </c>
@@ -10079,6 +10504,9 @@
         <v>0</v>
       </c>
       <c r="AP113" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ113" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10126,6 +10554,11 @@
       <c r="U114" s="9">
         <v>63988</v>
       </c>
+      <c r="V114" s="9">
+        <f>AQ114</f>
+        <v>70982</v>
+      </c>
+      <c r="W114" s="24"/>
       <c r="AN114" s="9">
         <v>22986</v>
       </c>
@@ -10134,6 +10567,9 @@
       </c>
       <c r="AP114" s="9">
         <v>45913</v>
+      </c>
+      <c r="AQ114" s="9">
+        <v>70982</v>
       </c>
     </row>
     <row r="115" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -10210,9 +10646,9 @@
       </c>
       <c r="V115" s="6">
         <f t="shared" si="185"/>
-        <v>0</v>
-      </c>
-      <c r="W115" s="6">
+        <v>192645</v>
+      </c>
+      <c r="W115" s="23">
         <f t="shared" si="185"/>
         <v>0</v>
       </c>
@@ -10282,7 +10718,7 @@
       </c>
       <c r="AQ115" s="6">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>192645</v>
       </c>
       <c r="AR115" s="6">
         <f t="shared" si="191"/>
@@ -10313,6 +10749,7 @@
       <c r="K116" s="31"/>
       <c r="O116" s="31"/>
       <c r="S116" s="31"/>
+      <c r="W116" s="31"/>
     </row>
     <row r="117" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
@@ -10357,6 +10794,10 @@
       <c r="U117" s="6">
         <v>6640</v>
       </c>
+      <c r="V117" s="6">
+        <f>AQ117</f>
+        <v>3533</v>
+      </c>
       <c r="AN117" s="6">
         <v>211</v>
       </c>
@@ -10365,6 +10806,9 @@
       </c>
       <c r="AP117" s="6">
         <v>18209</v>
+      </c>
+      <c r="AQ117" s="6">
+        <v>3533</v>
       </c>
     </row>
     <row r="118" spans="2:48" x14ac:dyDescent="0.35">
@@ -10410,6 +10854,10 @@
       <c r="U118" s="6">
         <v>1475913</v>
       </c>
+      <c r="V118" s="6">
+        <f>AQ118</f>
+        <v>1477798</v>
+      </c>
       <c r="AN118" s="6">
         <v>242215</v>
       </c>
@@ -10418,6 +10866,9 @@
       </c>
       <c r="AP118" s="6">
         <v>1470270</v>
+      </c>
+      <c r="AQ118" s="6">
+        <v>1477798</v>
       </c>
     </row>
     <row r="119" spans="2:48" x14ac:dyDescent="0.35">
@@ -10463,6 +10914,10 @@
       <c r="U119" s="6">
         <v>107230</v>
       </c>
+      <c r="V119" s="6">
+        <f>AQ119</f>
+        <v>91161</v>
+      </c>
       <c r="AN119" s="6">
         <v>0</v>
       </c>
@@ -10471,6 +10926,9 @@
       </c>
       <c r="AP119" s="6">
         <v>108243</v>
+      </c>
+      <c r="AQ119" s="6">
+        <v>91161</v>
       </c>
     </row>
     <row r="120" spans="2:48" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -10517,6 +10975,11 @@
       <c r="U120" s="8">
         <v>9838</v>
       </c>
+      <c r="V120" s="6">
+        <f>AQ120</f>
+        <v>9528</v>
+      </c>
+      <c r="W120" s="32"/>
       <c r="AN120" s="8">
         <v>2061</v>
       </c>
@@ -10525,6 +10988,9 @@
       </c>
       <c r="AP120" s="8">
         <v>3826</v>
+      </c>
+      <c r="AQ120" s="8">
+        <v>9528</v>
       </c>
     </row>
     <row r="121" spans="2:48" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -10601,9 +11067,9 @@
       </c>
       <c r="V121" s="13">
         <f t="shared" si="193"/>
-        <v>0</v>
-      </c>
-      <c r="W121" s="13">
+        <v>1582020</v>
+      </c>
+      <c r="W121" s="33">
         <f t="shared" si="193"/>
         <v>0</v>
       </c>
@@ -10675,7 +11141,7 @@
       </c>
       <c r="AQ121" s="13">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>1582020</v>
       </c>
       <c r="AR121" s="13">
         <f t="shared" si="199"/>
@@ -10772,9 +11238,9 @@
       </c>
       <c r="V122" s="14">
         <f t="shared" si="201"/>
-        <v>0</v>
-      </c>
-      <c r="W122" s="14">
+        <v>1774665</v>
+      </c>
+      <c r="W122" s="28">
         <f t="shared" si="201"/>
         <v>0</v>
       </c>
@@ -10846,7 +11312,7 @@
       </c>
       <c r="AQ122" s="14">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1774665</v>
       </c>
       <c r="AR122" s="14">
         <f t="shared" si="207"/>
@@ -10877,6 +11343,7 @@
       <c r="K123" s="31"/>
       <c r="O123" s="31"/>
       <c r="S123" s="31"/>
+      <c r="W123" s="31"/>
     </row>
     <row r="124" spans="2:48" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B124" s="12" t="s">
@@ -10922,6 +11389,11 @@
       <c r="U124" s="12">
         <v>0</v>
       </c>
+      <c r="V124" s="6">
+        <f>AQ124</f>
+        <v>0</v>
+      </c>
+      <c r="W124" s="34"/>
       <c r="AN124" s="12">
         <v>173074</v>
       </c>
@@ -10929,6 +11401,9 @@
         <v>0</v>
       </c>
       <c r="AP124" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ124" s="12">
         <v>0</v>
       </c>
     </row>
@@ -10976,6 +11451,11 @@
       <c r="U125" s="6">
         <v>0</v>
       </c>
+      <c r="V125" s="6">
+        <f>AQ125</f>
+        <v>0</v>
+      </c>
+      <c r="W125" s="23"/>
       <c r="AN125" s="6">
         <v>0</v>
       </c>
@@ -10983,6 +11463,9 @@
         <v>0</v>
       </c>
       <c r="AP125" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ125" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11030,6 +11513,11 @@
       <c r="U126" s="6">
         <v>2</v>
       </c>
+      <c r="V126" s="6">
+        <f>AQ126</f>
+        <v>2</v>
+      </c>
+      <c r="W126" s="23"/>
       <c r="AN126" s="6">
         <v>1</v>
       </c>
@@ -11037,6 +11525,9 @@
         <v>2</v>
       </c>
       <c r="AP126" s="6">
+        <v>2</v>
+      </c>
+      <c r="AQ126" s="6">
         <v>2</v>
       </c>
     </row>
@@ -11084,6 +11575,11 @@
       <c r="U127" s="6">
         <v>0</v>
       </c>
+      <c r="V127" s="6">
+        <f>AQ127</f>
+        <v>0</v>
+      </c>
+      <c r="W127" s="23"/>
       <c r="AN127" s="6">
         <v>-4598</v>
       </c>
@@ -11091,6 +11587,9 @@
         <v>-4598</v>
       </c>
       <c r="AP127" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ127" s="6">
         <v>0</v>
       </c>
     </row>
@@ -11138,6 +11637,11 @@
       <c r="U128" s="6">
         <v>0</v>
       </c>
+      <c r="V128" s="6">
+        <f>AQ128</f>
+        <v>30989</v>
+      </c>
+      <c r="W128" s="23"/>
       <c r="AN128" s="6">
         <v>99783</v>
       </c>
@@ -11146,6 +11650,9 @@
       </c>
       <c r="AP128" s="6">
         <v>263957</v>
+      </c>
+      <c r="AQ128" s="6">
+        <v>30989</v>
       </c>
     </row>
     <row r="129" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -11192,6 +11699,11 @@
       <c r="U129" s="6">
         <v>-1022</v>
       </c>
+      <c r="V129" s="6">
+        <f>AQ129</f>
+        <v>-452</v>
+      </c>
+      <c r="W129" s="23"/>
       <c r="AN129" s="6">
         <v>-245</v>
       </c>
@@ -11200,6 +11712,9 @@
       </c>
       <c r="AP129" s="6">
         <v>-2048</v>
+      </c>
+      <c r="AQ129" s="6">
+        <v>-452</v>
       </c>
     </row>
     <row r="130" spans="2:48" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11246,6 +11761,11 @@
       <c r="U130" s="9">
         <v>-357753</v>
       </c>
+      <c r="V130" s="6">
+        <f>AQ130</f>
+        <v>-344237</v>
+      </c>
+      <c r="W130" s="24"/>
       <c r="AN130" s="9">
         <v>-167035</v>
       </c>
@@ -11254,6 +11774,9 @@
       </c>
       <c r="AP130" s="9">
         <v>-210821</v>
+      </c>
+      <c r="AQ130" s="9">
+        <v>-344237</v>
       </c>
     </row>
     <row r="131" spans="2:48" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -11330,9 +11853,9 @@
       </c>
       <c r="V131" s="13">
         <f t="shared" si="212"/>
-        <v>0</v>
-      </c>
-      <c r="W131" s="13">
+        <v>-313698</v>
+      </c>
+      <c r="W131" s="33">
         <f t="shared" si="212"/>
         <v>0</v>
       </c>
@@ -11402,7 +11925,7 @@
       </c>
       <c r="AQ131" s="13">
         <f t="shared" si="218"/>
-        <v>0</v>
+        <v>-313698</v>
       </c>
       <c r="AR131" s="13">
         <f t="shared" si="218"/>
@@ -11499,9 +12022,9 @@
       </c>
       <c r="V132" s="14">
         <f t="shared" si="220"/>
-        <v>0</v>
-      </c>
-      <c r="W132" s="14">
+        <v>1460967</v>
+      </c>
+      <c r="W132" s="28">
         <f t="shared" si="220"/>
         <v>0</v>
       </c>
@@ -11571,7 +12094,7 @@
       </c>
       <c r="AQ132" s="14">
         <f t="shared" si="226"/>
-        <v>0</v>
+        <v>1460967</v>
       </c>
       <c r="AR132" s="14">
         <f t="shared" si="226"/>
@@ -11599,6 +12122,7 @@
       <c r="K133" s="22"/>
       <c r="O133" s="22"/>
       <c r="S133" s="22"/>
+      <c r="W133" s="22"/>
     </row>
     <row r="134" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B134" s="6" t="s">
@@ -11652,6 +12176,11 @@
       <c r="U134" s="6">
         <v>154426</v>
       </c>
+      <c r="V134" s="6">
+        <f>AQ134</f>
+        <v>234942</v>
+      </c>
+      <c r="W134" s="23"/>
       <c r="AM134" s="6">
         <v>39902</v>
       </c>
@@ -11663,6 +12192,9 @@
       </c>
       <c r="AP134" s="6">
         <v>195152</v>
+      </c>
+      <c r="AQ134" s="6">
+        <v>234942</v>
       </c>
     </row>
     <row r="135" spans="2:48" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11729,6 +12261,11 @@
         <f>-67077-4075</f>
         <v>-71152</v>
       </c>
+      <c r="V135" s="9">
+        <f>AQ135</f>
+        <v>-124813</v>
+      </c>
+      <c r="W135" s="24"/>
       <c r="AM135" s="9">
         <f>-53504-16940</f>
         <v>-70444</v>
@@ -11744,6 +12281,10 @@
         <f>-106389-8913</f>
         <v>-115302</v>
       </c>
+      <c r="AQ135" s="9">
+        <f>-119299-5514</f>
+        <v>-124813</v>
+      </c>
     </row>
     <row r="136" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B136" s="6" t="s">
@@ -11819,9 +12360,9 @@
       </c>
       <c r="V136" s="6">
         <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="W136" s="6">
+        <v>110129</v>
+      </c>
+      <c r="W136" s="23">
         <f t="shared" si="228"/>
         <v>0</v>
       </c>
@@ -11890,7 +12431,7 @@
       </c>
       <c r="AQ136" s="6">
         <f t="shared" si="234"/>
-        <v>0</v>
+        <v>110129</v>
       </c>
       <c r="AR136" s="6">
         <f t="shared" si="234"/>
@@ -11918,6 +12459,7 @@
       <c r="K137" s="23"/>
       <c r="O137" s="23"/>
       <c r="S137" s="23"/>
+      <c r="W137" s="23"/>
     </row>
     <row r="138" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B138" s="6" t="s">
@@ -11980,6 +12522,11 @@
         <f>15358+2797</f>
         <v>18155</v>
       </c>
+      <c r="V138" s="6">
+        <f>AQ138</f>
+        <v>43387</v>
+      </c>
+      <c r="W138" s="23"/>
       <c r="AM138" s="6">
         <v>0</v>
       </c>
@@ -11994,6 +12541,10 @@
         <f>11509+7926</f>
         <v>19435</v>
       </c>
+      <c r="AQ138" s="6">
+        <f>38410+4977</f>
+        <v>43387</v>
+      </c>
     </row>
     <row r="139" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B139" s="6" t="s">
@@ -12047,6 +12598,11 @@
       <c r="U139" s="6">
         <v>65589</v>
       </c>
+      <c r="V139" s="6">
+        <f>AQ139</f>
+        <v>88347</v>
+      </c>
+      <c r="W139" s="23"/>
       <c r="AM139" s="6">
         <v>18646</v>
       </c>
@@ -12058,6 +12614,9 @@
       </c>
       <c r="AP139" s="6">
         <v>105829</v>
+      </c>
+      <c r="AQ139" s="6">
+        <v>88347</v>
       </c>
     </row>
     <row r="140" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -12112,6 +12671,11 @@
       <c r="U140" s="6">
         <v>-474950</v>
       </c>
+      <c r="V140" s="6">
+        <f>AQ140</f>
+        <v>-488455</v>
+      </c>
+      <c r="W140" s="23"/>
       <c r="AM140" s="6">
         <v>0</v>
       </c>
@@ -12123,6 +12687,9 @@
       </c>
       <c r="AP140" s="6">
         <v>-600000</v>
+      </c>
+      <c r="AQ140" s="6">
+        <v>-488455</v>
       </c>
     </row>
     <row r="141" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -12177,6 +12744,11 @@
       <c r="U141" s="6">
         <v>0</v>
       </c>
+      <c r="V141" s="6">
+        <f>AQ141</f>
+        <v>0</v>
+      </c>
+      <c r="W141" s="23"/>
       <c r="AM141" s="6">
         <v>0</v>
       </c>
@@ -12187,6 +12759,9 @@
         <v>0</v>
       </c>
       <c r="AP141" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ141" s="6">
         <v>0</v>
       </c>
     </row>
@@ -12198,6 +12773,7 @@
       <c r="K142" s="31"/>
       <c r="O142" s="31"/>
       <c r="S142" s="31"/>
+      <c r="W142" s="31"/>
     </row>
     <row r="143" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B143" s="6" t="s">
@@ -12263,7 +12839,10 @@
         <f>U134-T143-S143</f>
         <v>54050</v>
       </c>
-      <c r="V143" s="6"/>
+      <c r="V143" s="6">
+        <f>V134-U143-T143-S143</f>
+        <v>80516</v>
+      </c>
     </row>
     <row r="144" spans="2:48" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B144" s="9" t="s">
@@ -12329,7 +12908,11 @@
         <f>U135-T144-S144</f>
         <v>-21409</v>
       </c>
-      <c r="V144" s="9"/>
+      <c r="V144" s="9">
+        <f>V135-U144-T144-S144</f>
+        <v>-53661</v>
+      </c>
+      <c r="W144" s="32"/>
     </row>
     <row r="145" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B145" s="6" t="s">
@@ -12388,43 +12971,47 @@
         <v>22593</v>
       </c>
       <c r="R145" s="6">
-        <f t="shared" ref="R145" si="247">SUM(R143:R144)</f>
+        <f t="shared" ref="R145:U145" si="247">SUM(R143:R144)</f>
         <v>33804</v>
       </c>
       <c r="S145" s="23">
-        <f t="shared" ref="S145" si="248">SUM(S143:S144)</f>
+        <f t="shared" si="247"/>
         <v>11107</v>
       </c>
       <c r="T145" s="6">
-        <f t="shared" ref="T145" si="249">SUM(T143:T144)</f>
+        <f t="shared" si="247"/>
         <v>39526</v>
       </c>
       <c r="U145" s="6">
-        <f t="shared" ref="U145" si="250">SUM(U143:U144)</f>
+        <f t="shared" si="247"/>
         <v>32641</v>
       </c>
-      <c r="W145" s="6">
-        <f t="shared" ref="W145" si="251">SUM(W143:W144)</f>
+      <c r="V145" s="6">
+        <f t="shared" ref="V145" si="248">SUM(V143:V144)</f>
+        <v>26855</v>
+      </c>
+      <c r="W145" s="23">
+        <f t="shared" ref="W145" si="249">SUM(W143:W144)</f>
         <v>0</v>
       </c>
       <c r="X145" s="6">
-        <f t="shared" ref="X145" si="252">SUM(X143:X144)</f>
+        <f t="shared" ref="X145" si="250">SUM(X143:X144)</f>
         <v>0</v>
       </c>
       <c r="Y145" s="6">
-        <f t="shared" ref="Y145" si="253">SUM(Y143:Y144)</f>
+        <f t="shared" ref="Y145" si="251">SUM(Y143:Y144)</f>
         <v>0</v>
       </c>
       <c r="Z145" s="6">
-        <f t="shared" ref="Z145" si="254">SUM(Z143:Z144)</f>
+        <f t="shared" ref="Z145" si="252">SUM(Z143:Z144)</f>
         <v>0</v>
       </c>
       <c r="AA145" s="6">
-        <f t="shared" ref="AA145" si="255">SUM(AA143:AA144)</f>
+        <f t="shared" ref="AA145" si="253">SUM(AA143:AA144)</f>
         <v>0</v>
       </c>
       <c r="AB145" s="6">
-        <f t="shared" ref="AB145" si="256">SUM(AB143:AB144)</f>
+        <f t="shared" ref="AB145" si="254">SUM(AB143:AB144)</f>
         <v>0</v>
       </c>
       <c r="AF145" s="6">
@@ -12432,67 +13019,67 @@
         <v>0</v>
       </c>
       <c r="AG145" s="6">
-        <f t="shared" ref="AG145:AV145" si="257">SUM(AG143:AG144)</f>
+        <f t="shared" ref="AG145:AV145" si="255">SUM(AG143:AG144)</f>
         <v>0</v>
       </c>
       <c r="AH145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="AI145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="AJ145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="AK145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="AL145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="AM145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="AN145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="AO145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="AP145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="AQ145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="AR145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="AS145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="AT145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="AU145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="AV145" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
     </row>
@@ -12563,7 +13150,10 @@
         <f>U138-T147-S147</f>
         <v>3689</v>
       </c>
-      <c r="V147" s="6"/>
+      <c r="V147" s="6">
+        <f>V138-U147-T147-S147</f>
+        <v>25232</v>
+      </c>
     </row>
     <row r="148" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B148" s="6" t="s">
@@ -12629,7 +13219,10 @@
         <f>U139-T148-S148</f>
         <v>-2371</v>
       </c>
-      <c r="V148" s="6"/>
+      <c r="V148" s="6">
+        <f>V139-U148-T148-S148</f>
+        <v>22758</v>
+      </c>
     </row>
     <row r="149" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B149" s="6" t="s">
@@ -12695,7 +13288,10 @@
         <f>U140-T149-S149</f>
         <v>-106031</v>
       </c>
-      <c r="V149" s="6"/>
+      <c r="V149" s="6">
+        <f>V140-U149-T149-S149</f>
+        <v>-13505</v>
+      </c>
     </row>
     <row r="150" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B150" s="6" t="s">
@@ -12761,7 +13357,10 @@
         <f>U141-T150-S150</f>
         <v>0</v>
       </c>
-      <c r="V150" s="6"/>
+      <c r="V150" s="6">
+        <f>V141-U150-T150-S150</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="2:48" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B153" s="3" t="s">
@@ -12771,81 +13370,82 @@
       <c r="K153" s="22"/>
       <c r="O153" s="22"/>
       <c r="S153" s="22"/>
+      <c r="W153" s="22"/>
     </row>
     <row r="154" spans="2:48" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B154" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K154" s="6">
+      <c r="K154" s="23">
         <f>K7*K155</f>
         <v>2039564.3199999998</v>
       </c>
       <c r="L154" s="6">
-        <f t="shared" ref="L154:AB154" si="258">L7*L155</f>
+        <f t="shared" ref="L154:AB154" si="256">L7*L155</f>
         <v>4588759.6999999993</v>
       </c>
       <c r="M154" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="256"/>
         <v>6645709.7999999998</v>
       </c>
       <c r="N154" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="256"/>
         <v>8746275.6799999997</v>
       </c>
-      <c r="O154" s="6">
-        <f t="shared" si="258"/>
+      <c r="O154" s="23">
+        <f t="shared" si="256"/>
         <v>6247632</v>
       </c>
       <c r="P154" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="256"/>
         <v>4577739.3199999994</v>
       </c>
       <c r="Q154" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="256"/>
         <v>4068030.6700000004</v>
       </c>
       <c r="R154" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="256"/>
         <v>3155227.8000000003</v>
       </c>
-      <c r="S154" s="6">
-        <f t="shared" si="258"/>
+      <c r="S154" s="23">
+        <f t="shared" si="256"/>
         <v>2995007.1</v>
       </c>
       <c r="T154" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="256"/>
         <v>3276347.6700000004</v>
       </c>
       <c r="U154" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="256"/>
         <v>3104288.4699999997</v>
       </c>
       <c r="V154" s="6">
-        <f t="shared" si="258"/>
-        <v>0</v>
-      </c>
-      <c r="W154" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="256"/>
+        <v>2493300.06</v>
+      </c>
+      <c r="W154" s="23">
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="X154" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="Y154" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="Z154" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="AA154" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
       <c r="AB154" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="256"/>
         <v>0</v>
       </c>
     </row>
@@ -12854,76 +13454,76 @@
         <v>2</v>
       </c>
       <c r="G155"/>
-      <c r="K155" s="6">
+      <c r="K155" s="23">
         <f>K88</f>
         <v>49432</v>
       </c>
       <c r="L155" s="6">
-        <f t="shared" ref="L155:AB155" si="259">L88</f>
+        <f t="shared" ref="L155:AB155" si="257">L88</f>
         <v>106765</v>
       </c>
       <c r="M155" s="6">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>107955</v>
       </c>
       <c r="N155" s="6">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>93224</v>
       </c>
-      <c r="O155" s="6">
-        <f t="shared" si="259"/>
+      <c r="O155" s="23">
+        <f t="shared" si="257"/>
         <v>106980</v>
       </c>
       <c r="P155" s="6">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>102502</v>
       </c>
       <c r="Q155" s="6">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>96559</v>
       </c>
       <c r="R155" s="6">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>100806</v>
       </c>
-      <c r="S155" s="6">
-        <f t="shared" si="259"/>
+      <c r="S155" s="23">
+        <f t="shared" si="257"/>
         <v>95565</v>
       </c>
       <c r="T155" s="6">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>89007</v>
       </c>
       <c r="U155" s="6">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>87667</v>
       </c>
       <c r="V155" s="6">
-        <f t="shared" si="259"/>
-        <v>0</v>
-      </c>
-      <c r="W155" s="6">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
+        <v>90141</v>
+      </c>
+      <c r="W155" s="23">
+        <f t="shared" si="257"/>
         <v>0</v>
       </c>
       <c r="X155" s="6">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>0</v>
       </c>
       <c r="Y155" s="6">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>0</v>
       </c>
       <c r="Z155" s="6">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>0</v>
       </c>
       <c r="AA155" s="6">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>0</v>
       </c>
       <c r="AB155" s="6">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>0</v>
       </c>
     </row>
@@ -12931,81 +13531,85 @@
       <c r="B156" s="16" t="s">
         <v>151</v>
       </c>
+      <c r="K156" s="36"/>
+      <c r="O156" s="36"/>
+      <c r="S156" s="36"/>
+      <c r="W156" s="36"/>
     </row>
     <row r="157" spans="2:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B157" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K157" s="2">
+      <c r="K157" s="25">
         <f>K154/SUM(H65:K65)</f>
         <v>6.011998030944822</v>
       </c>
       <c r="L157" s="2">
-        <f t="shared" ref="L157:AB157" si="260">L154/SUM(I65:L65)</f>
+        <f t="shared" ref="L157:AB157" si="258">L154/SUM(I65:L65)</f>
         <v>12.532527010935466</v>
       </c>
       <c r="M157" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="258"/>
         <v>16.764484279141104</v>
       </c>
       <c r="N157" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="258"/>
         <v>20.408473192847691</v>
       </c>
-      <c r="O157" s="2">
-        <f t="shared" si="260"/>
+      <c r="O157" s="25">
+        <f t="shared" si="258"/>
         <v>13.516371825964299</v>
       </c>
       <c r="P157" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="258"/>
         <v>9.2986971738719753</v>
       </c>
       <c r="Q157" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="258"/>
         <v>7.6325281902338906</v>
       </c>
       <c r="R157" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="258"/>
         <v>5.4747654956777643</v>
       </c>
-      <c r="S157" s="2">
-        <f t="shared" si="260"/>
+      <c r="S157" s="25">
+        <f t="shared" si="258"/>
         <v>4.8768371140265323</v>
       </c>
       <c r="T157" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="258"/>
         <v>5.040061886499883</v>
       </c>
       <c r="U157" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="258"/>
         <v>4.598891376102209</v>
       </c>
       <c r="V157" s="2">
-        <f t="shared" si="260"/>
-        <v>0</v>
-      </c>
-      <c r="W157" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="258"/>
+        <v>3.5984379203445309</v>
+      </c>
+      <c r="W157" s="25">
+        <f t="shared" si="258"/>
         <v>0</v>
       </c>
       <c r="X157" s="2">
-        <f t="shared" si="260"/>
-        <v>0</v>
-      </c>
-      <c r="Y157" s="2" t="e">
-        <f t="shared" si="260"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="258"/>
+        <v>0</v>
+      </c>
+      <c r="Y157" s="2">
+        <f t="shared" si="258"/>
+        <v>0</v>
       </c>
       <c r="Z157" s="2" t="e">
-        <f t="shared" si="260"/>
+        <f t="shared" si="258"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA157" s="2" t="e">
-        <f t="shared" si="260"/>
+        <f t="shared" si="258"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB157" s="2" t="e">
-        <f t="shared" si="260"/>
+        <f t="shared" si="258"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13013,76 +13617,76 @@
       <c r="B158" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K158" s="2">
+      <c r="K158" s="25">
         <f>K154/SUM(H84:K84)</f>
         <v>-68.149035017375027</v>
       </c>
       <c r="L158" s="2">
-        <f t="shared" ref="L158:AB158" si="261">L154/SUM(I84:L84)</f>
+        <f t="shared" ref="L158:AB158" si="259">L154/SUM(I84:L84)</f>
         <v>-155.31425621932644</v>
       </c>
       <c r="M158" s="2">
-        <f t="shared" si="261"/>
+        <f t="shared" si="259"/>
         <v>-313.72845206061464</v>
       </c>
       <c r="N158" s="2">
-        <f t="shared" si="261"/>
+        <f t="shared" si="259"/>
         <v>-470.76138005274771</v>
       </c>
-      <c r="O158" s="2">
-        <f t="shared" si="261"/>
+      <c r="O158" s="25">
+        <f t="shared" si="259"/>
         <v>-184.79744439185993</v>
       </c>
       <c r="P158" s="2">
-        <f t="shared" si="261"/>
+        <f t="shared" si="259"/>
         <v>-119.27408337675871</v>
       </c>
       <c r="Q158" s="2">
-        <f t="shared" si="261"/>
+        <f t="shared" si="259"/>
         <v>-142.11460855895197</v>
       </c>
       <c r="R158" s="2">
-        <f t="shared" si="261"/>
-        <v>-129.93566692748013</v>
-      </c>
-      <c r="S158" s="2">
-        <f t="shared" si="261"/>
-        <v>-73.674286627964193</v>
+        <f t="shared" si="259"/>
+        <v>-113.48107466551576</v>
+      </c>
+      <c r="S158" s="25">
+        <f t="shared" si="259"/>
+        <v>-67.801758993050058</v>
       </c>
       <c r="T158" s="2">
-        <f t="shared" si="261"/>
-        <v>-123.1894897728982</v>
+        <f t="shared" si="259"/>
+        <v>-108.78731845801376</v>
       </c>
       <c r="U158" s="2">
-        <f t="shared" si="261"/>
-        <v>-202.57690354998692</v>
+        <f t="shared" si="259"/>
+        <v>-164.72743274078005</v>
       </c>
       <c r="V158" s="2">
-        <f t="shared" si="261"/>
-        <v>0</v>
-      </c>
-      <c r="W158" s="2">
-        <f t="shared" si="261"/>
+        <f t="shared" si="259"/>
+        <v>128.46102632799216</v>
+      </c>
+      <c r="W158" s="25">
+        <f t="shared" si="259"/>
         <v>0</v>
       </c>
       <c r="X158" s="2">
-        <f t="shared" si="261"/>
-        <v>0</v>
-      </c>
-      <c r="Y158" s="2" t="e">
-        <f t="shared" si="261"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="259"/>
+        <v>0</v>
+      </c>
+      <c r="Y158" s="2">
+        <f t="shared" si="259"/>
+        <v>0</v>
       </c>
       <c r="Z158" s="2" t="e">
-        <f t="shared" si="261"/>
+        <f t="shared" si="259"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA158" s="2" t="e">
-        <f t="shared" si="261"/>
+        <f t="shared" si="259"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB158" s="2" t="e">
-        <f t="shared" si="261"/>
+        <f t="shared" si="259"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13090,76 +13694,76 @@
       <c r="B159" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K159" s="2">
+      <c r="K159" s="25">
         <f>K154/K131</f>
         <v>2.4133714191052049</v>
       </c>
       <c r="L159" s="2">
-        <f t="shared" ref="L159:AB159" si="262">L154/L131</f>
+        <f t="shared" ref="L159:AB159" si="260">L154/L131</f>
         <v>5.3476812293435136</v>
       </c>
       <c r="M159" s="2">
-        <f t="shared" si="262"/>
+        <f t="shared" si="260"/>
         <v>7.33171651958832</v>
       </c>
       <c r="N159" s="2">
-        <f t="shared" si="262"/>
+        <f t="shared" si="260"/>
         <v>15.126809167117781</v>
       </c>
-      <c r="O159" s="2">
-        <f t="shared" si="262"/>
+      <c r="O159" s="25">
+        <f t="shared" si="260"/>
         <v>14.603037180568963</v>
       </c>
       <c r="P159" s="2">
-        <f t="shared" si="262"/>
+        <f t="shared" si="260"/>
         <v>94.830222277463577</v>
       </c>
       <c r="Q159" s="2">
-        <f t="shared" si="262"/>
+        <f t="shared" si="260"/>
         <v>134.62721878412816</v>
       </c>
       <c r="R159" s="2">
-        <f t="shared" si="262"/>
+        <f t="shared" si="260"/>
         <v>61.758226658837351</v>
       </c>
-      <c r="S159" s="2">
-        <f t="shared" si="262"/>
+      <c r="S159" s="25">
+        <f t="shared" si="260"/>
         <v>-13.760404587096952</v>
       </c>
       <c r="T159" s="2">
-        <f t="shared" si="262"/>
+        <f t="shared" si="260"/>
         <v>-12.244412566008545</v>
       </c>
       <c r="U159" s="2">
-        <f t="shared" si="262"/>
+        <f t="shared" si="260"/>
         <v>-8.6525141802755492</v>
       </c>
-      <c r="V159" s="2" t="e">
-        <f t="shared" si="262"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W159" s="2" t="e">
-        <f t="shared" si="262"/>
+      <c r="V159" s="2">
+        <f t="shared" si="260"/>
+        <v>-7.9480903926706583</v>
+      </c>
+      <c r="W159" s="25" t="e">
+        <f t="shared" si="260"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X159" s="2" t="e">
-        <f t="shared" si="262"/>
+        <f t="shared" si="260"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y159" s="2" t="e">
-        <f t="shared" si="262"/>
+        <f t="shared" si="260"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z159" s="2" t="e">
-        <f t="shared" si="262"/>
+        <f t="shared" si="260"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA159" s="2" t="e">
-        <f t="shared" si="262"/>
+        <f t="shared" si="260"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB159" s="2" t="e">
-        <f t="shared" si="262"/>
+        <f t="shared" si="260"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13167,80 +13771,85 @@
       <c r="B160" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K160" s="2">
+      <c r="K160" s="25">
         <f>K154/SUM(H145:K145)</f>
         <v>-61.562460609719281</v>
       </c>
       <c r="L160" s="2">
-        <f t="shared" ref="L160:AB160" si="263">L154/SUM(I145:L145)</f>
+        <f t="shared" ref="L160:AB160" si="261">L154/SUM(I145:L145)</f>
         <v>-1317.851723147616</v>
       </c>
       <c r="M160" s="2">
-        <f t="shared" si="263"/>
+        <f t="shared" si="261"/>
         <v>391.20024723334114</v>
       </c>
       <c r="N160" s="2">
-        <f t="shared" si="263"/>
+        <f t="shared" si="261"/>
         <v>248.91924979366479</v>
       </c>
-      <c r="O160" s="2">
-        <f t="shared" si="263"/>
+      <c r="O160" s="25">
+        <f t="shared" si="261"/>
         <v>141.36833054260759</v>
       </c>
       <c r="P160" s="2">
-        <f t="shared" si="263"/>
+        <f t="shared" si="261"/>
         <v>95.088266378629868</v>
       </c>
       <c r="Q160" s="2">
-        <f t="shared" si="263"/>
+        <f t="shared" si="261"/>
         <v>78.862257095223327</v>
       </c>
       <c r="R160" s="2">
-        <f t="shared" si="263"/>
+        <f t="shared" si="261"/>
         <v>39.514437069505327</v>
       </c>
-      <c r="S160" s="2">
-        <f t="shared" si="263"/>
+      <c r="S160" s="25">
+        <f t="shared" si="261"/>
         <v>34.875544092131769</v>
       </c>
       <c r="T160" s="2">
-        <f t="shared" si="263"/>
+        <f t="shared" si="261"/>
         <v>30.6114890217696</v>
       </c>
       <c r="U160" s="2">
-        <f t="shared" si="263"/>
+        <f t="shared" si="261"/>
         <v>26.514703616392488</v>
       </c>
       <c r="V160" s="2">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="W160" s="2">
-        <f t="shared" si="263"/>
+        <f t="shared" si="261"/>
+        <v>22.639813854661352</v>
+      </c>
+      <c r="W160" s="25">
+        <f t="shared" si="261"/>
         <v>0</v>
       </c>
       <c r="X160" s="2">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="Y160" s="2" t="e">
-        <f t="shared" si="263"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="261"/>
+        <v>0</v>
+      </c>
+      <c r="Y160" s="2">
+        <f t="shared" si="261"/>
+        <v>0</v>
       </c>
       <c r="Z160" s="2" t="e">
-        <f t="shared" si="263"/>
+        <f t="shared" si="261"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA160" s="2" t="e">
-        <f t="shared" si="263"/>
+        <f t="shared" si="261"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB160" s="2" t="e">
-        <f t="shared" si="263"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.35"/>
+        <f t="shared" si="261"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="11:23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K161" s="20"/>
+      <c r="O161" s="20"/>
+      <c r="S161" s="20"/>
+      <c r="W161" s="20"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
